--- a/25NKUMCM-C/Attachment4_interpolated.xlsx
+++ b/25NKUMCM-C/Attachment4_interpolated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4933123217658</v>
+        <v>13.49331059615474</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>42380</v>
       </c>
       <c r="C3" t="n">
-        <v>13.88347554650005</v>
+        <v>13.88347393897707</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>42391</v>
       </c>
       <c r="C4" t="n">
-        <v>14.43181213900934</v>
+        <v>14.43181068013132</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>42401</v>
       </c>
       <c r="C5" t="n">
-        <v>15.19962656266537</v>
+        <v>15.19962528735154</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>42412</v>
       </c>
       <c r="C6" t="n">
-        <v>16.26926725404851</v>
+        <v>16.26926619975091</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         <v>42423</v>
       </c>
       <c r="C7" t="n">
-        <v>17.74878342171929</v>
+        <v>17.74878262456504</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>42433</v>
       </c>
       <c r="C8" t="n">
-        <v>19.77515773624458</v>
+        <v>19.77515722436283</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>42444</v>
       </c>
       <c r="C9" t="n">
-        <v>22.51336146577538</v>
+        <v>22.51336124942444</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>42454</v>
       </c>
       <c r="C10" t="n">
-        <v>26.14681990205083</v>
+        <v>26.14681996147898</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         <v>42465</v>
       </c>
       <c r="C11" t="n">
-        <v>30.85370520931124</v>
+        <v>30.85370548392201</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>42476</v>
       </c>
       <c r="C12" t="n">
-        <v>36.7648128763702</v>
+        <v>36.76481326228497</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +583,7 @@
         <v>42486</v>
       </c>
       <c r="C13" t="n">
-        <v>43.90556290199446</v>
+        <v>43.90556326701654</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>42497</v>
       </c>
       <c r="C14" t="n">
-        <v>52.13806672607742</v>
+        <v>52.13806694671574</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +605,7 @@
         <v>42507</v>
       </c>
       <c r="C15" t="n">
-        <v>61.13331977000642</v>
+        <v>61.1333197818735</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +616,7 @@
         <v>42518</v>
       </c>
       <c r="C16" t="n">
-        <v>70.40355531606136</v>
+        <v>70.40355515332689</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +627,7 @@
         <v>42529</v>
       </c>
       <c r="C17" t="n">
-        <v>79.39874715598248</v>
+        <v>79.3987469538347</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         <v>42539</v>
       </c>
       <c r="C18" t="n">
-        <v>87.63114213449579</v>
+        <v>87.63114208914932</v>
       </c>
     </row>
     <row r="19">
@@ -649,7 +649,7 @@
         <v>42550</v>
       </c>
       <c r="C19" t="n">
-        <v>94.7717568572762</v>
+        <v>94.77175716542764</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +660,7 @@
         <v>42560</v>
       </c>
       <c r="C20" t="n">
-        <v>100.682723782199</v>
+        <v>100.6827245910907</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         <v>42571</v>
       </c>
       <c r="C21" t="n">
-        <v>105.3894784031429</v>
+        <v>105.3894797888235</v>
       </c>
     </row>
     <row r="22">
@@ -682,7 +682,7 @@
         <v>42582</v>
       </c>
       <c r="C22" t="n">
-        <v>109.0228246685757</v>
+        <v>109.0228266404049</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +693,7 @@
         <v>42592</v>
       </c>
       <c r="C23" t="n">
-        <v>111.7609373664224</v>
+        <v>111.7609398856572</v>
       </c>
     </row>
     <row r="24">
@@ -704,7 +704,7 @@
         <v>42603</v>
       </c>
       <c r="C24" t="n">
-        <v>113.7872407177307</v>
+        <v>113.7872437185826</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>42614</v>
       </c>
       <c r="C25" t="n">
-        <v>115.266703140934</v>
+        <v>115.26670654763</v>
       </c>
     </row>
     <row r="26">
@@ -726,7 +726,7 @@
         <v>42736</v>
       </c>
       <c r="C26" t="n">
-        <v>13.51513635912397</v>
+        <v>13.51513462773141</v>
       </c>
     </row>
     <row r="27">
@@ -737,7 +737,7 @@
         <v>42746</v>
       </c>
       <c r="C27" t="n">
-        <v>13.90620569372414</v>
+        <v>13.90620408061773</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>42757</v>
       </c>
       <c r="C28" t="n">
-        <v>14.45581573581765</v>
+        <v>14.45581427159435</v>
       </c>
     </row>
     <row r="29">
@@ -759,7 +759,7 @@
         <v>42767</v>
       </c>
       <c r="C29" t="n">
-        <v>15.22541332144376</v>
+        <v>15.22541204106105</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +770,7 @@
         <v>42778</v>
       </c>
       <c r="C30" t="n">
-        <v>16.29753813209292</v>
+        <v>16.29753707303087</v>
       </c>
     </row>
     <row r="31">
@@ -781,7 +781,7 @@
         <v>42788</v>
       </c>
       <c r="C31" t="n">
-        <v>17.78049030836555</v>
+        <v>17.78048950675517</v>
       </c>
     </row>
     <row r="32">
@@ -792,7 +792,7 @@
         <v>42799</v>
       </c>
       <c r="C32" t="n">
-        <v>19.81157064755446</v>
+        <v>19.81157013148345</v>
       </c>
     </row>
     <row r="33">
@@ -803,7 +803,7 @@
         <v>42809</v>
       </c>
       <c r="C33" t="n">
-        <v>22.55613354488207</v>
+        <v>22.55613332449357</v>
       </c>
     </row>
     <row r="34">
@@ -814,7 +814,7 @@
         <v>42820</v>
       </c>
       <c r="C34" t="n">
-        <v>26.19803027653701</v>
+        <v>26.19803033185863</v>
       </c>
     </row>
     <row r="35">
@@ -825,7 +825,7 @@
         <v>42831</v>
       </c>
       <c r="C35" t="n">
-        <v>30.91584679141589</v>
+        <v>30.91584706150086</v>
       </c>
     </row>
     <row r="36">
@@ -836,7 +836,7 @@
         <v>42841</v>
       </c>
       <c r="C36" t="n">
-        <v>36.84068233602991</v>
+        <v>36.84068271652323</v>
       </c>
     </row>
     <row r="37">
@@ -847,7 +847,7 @@
         <v>42852</v>
       </c>
       <c r="C37" t="n">
-        <v>43.9980159442117</v>
+        <v>43.99801630236958</v>
       </c>
     </row>
     <row r="38">
@@ -858,7 +858,7 @@
         <v>42862</v>
       </c>
       <c r="C38" t="n">
-        <v>52.24963882530292</v>
+        <v>52.24963903713435</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         <v>42873</v>
       </c>
       <c r="C39" t="n">
-        <v>61.26578232484855</v>
+        <v>61.26578232566758</v>
       </c>
     </row>
     <row r="40">
@@ -880,7 +880,7 @@
         <v>42883</v>
       </c>
       <c r="C40" t="n">
-        <v>70.55754694221309</v>
+        <v>70.55754676621508</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>42894</v>
       </c>
       <c r="C41" t="n">
-        <v>79.57362909561147</v>
+        <v>79.57362887835232</v>
       </c>
     </row>
     <row r="42">
@@ -902,7 +902,7 @@
         <v>42905</v>
       </c>
       <c r="C42" t="n">
-        <v>87.82514287835157</v>
+        <v>87.8251428166505</v>
       </c>
     </row>
     <row r="43">
@@ -913,7 +913,7 @@
         <v>42915</v>
       </c>
       <c r="C43" t="n">
-        <v>94.98234086946398</v>
+        <v>94.98234116068758</v>
       </c>
     </row>
     <row r="44">
@@ -924,7 +924,7 @@
         <v>42926</v>
       </c>
       <c r="C44" t="n">
-        <v>100.9070353450842</v>
+        <v>100.9070361370568</v>
       </c>
     </row>
     <row r="45">
@@ -935,7 +935,7 @@
         <v>42936</v>
       </c>
       <c r="C45" t="n">
-        <v>105.6247208701424</v>
+        <v>105.6247222393245</v>
       </c>
     </row>
     <row r="46">
@@ -946,7 +946,7 @@
         <v>42947</v>
       </c>
       <c r="C46" t="n">
-        <v>109.2665051704506</v>
+        <v>109.2665071264332</v>
       </c>
     </row>
     <row r="47">
@@ -957,7 +957,7 @@
         <v>42957</v>
       </c>
       <c r="C47" t="n">
-        <v>112.0109768246833</v>
+        <v>112.0109793288082</v>
       </c>
     </row>
     <row r="48">
@@ -968,7 +968,7 @@
         <v>42968</v>
       </c>
       <c r="C48" t="n">
-        <v>114.0419860358512</v>
+        <v>114.0419890223161</v>
       </c>
     </row>
     <row r="49">
@@ -979,7 +979,7 @@
         <v>42979</v>
       </c>
       <c r="C49" t="n">
-        <v>115.524884342841</v>
+        <v>115.5248877358035</v>
       </c>
     </row>
     <row r="50">
@@ -990,7 +990,7 @@
         <v>43101</v>
       </c>
       <c r="C50" t="n">
-        <v>13.53627833985454</v>
+        <v>13.53627660312781</v>
       </c>
     </row>
     <row r="51">
@@ -1001,7 +1001,7 @@
         <v>43111</v>
       </c>
       <c r="C51" t="n">
-        <v>13.92822594895004</v>
+        <v>13.92822433071274</v>
       </c>
     </row>
     <row r="52">
@@ -1012,7 +1012,7 @@
         <v>43122</v>
       </c>
       <c r="C52" t="n">
-        <v>14.47907032071259</v>
+        <v>14.47906885160509</v>
       </c>
     </row>
     <row r="53">
@@ -1023,7 +1023,7 @@
         <v>43132</v>
       </c>
       <c r="C53" t="n">
-        <v>15.25039629021164</v>
+        <v>15.25039500523484</v>
       </c>
     </row>
     <row r="54">
@@ -1034,7 +1034,7 @@
         <v>43143</v>
       </c>
       <c r="C54" t="n">
-        <v>16.32492890887256</v>
+        <v>16.32492784554246</v>
       </c>
     </row>
     <row r="55">
@@ -1045,7 +1045,7 @@
         <v>43153</v>
       </c>
       <c r="C55" t="n">
-        <v>17.81121154079329</v>
+        <v>17.8112107352565</v>
       </c>
     </row>
     <row r="56">
@@ -1056,7 +1056,7 @@
         <v>43164</v>
       </c>
       <c r="C56" t="n">
-        <v>19.84685333725346</v>
+        <v>19.84685281757334</v>
       </c>
     </row>
     <row r="57">
@@ -1067,7 +1067,7 @@
         <v>43174</v>
       </c>
       <c r="C57" t="n">
-        <v>22.59758005102048</v>
+        <v>22.59757982724913</v>
       </c>
     </row>
     <row r="58">
@@ -1078,7 +1078,7 @@
         <v>43185</v>
       </c>
       <c r="C58" t="n">
-        <v>26.24765585664272</v>
+        <v>26.24765590861978</v>
       </c>
     </row>
     <row r="59">
@@ -1089,7 +1089,7 @@
         <v>43196</v>
       </c>
       <c r="C59" t="n">
-        <v>30.97606777635668</v>
+        <v>30.97606804282687</v>
       </c>
     </row>
     <row r="60">
@@ -1100,7 +1100,7 @@
         <v>43206</v>
       </c>
       <c r="C60" t="n">
-        <v>36.91420948304344</v>
+        <v>36.91420985922488</v>
       </c>
     </row>
     <row r="61">
@@ -1111,7 +1111,7 @@
         <v>43217</v>
       </c>
       <c r="C61" t="n">
-        <v>44.08761723206542</v>
+        <v>44.08761758471959</v>
       </c>
     </row>
     <row r="62">
@@ -1122,7 +1122,7 @@
         <v>43227</v>
       </c>
       <c r="C62" t="n">
-        <v>52.35777183958047</v>
+        <v>52.35777204426334</v>
       </c>
     </row>
     <row r="63">
@@ -1133,7 +1133,7 @@
         <v>43238</v>
       </c>
       <c r="C63" t="n">
-        <v>61.39416404742738</v>
+        <v>61.3941640391858</v>
       </c>
     </row>
     <row r="64">
@@ -1144,7 +1144,7 @@
         <v>43248</v>
       </c>
       <c r="C64" t="n">
-        <v>70.70679637074079</v>
+        <v>70.70679618380294</v>
       </c>
     </row>
     <row r="65">
@@ -1155,7 +1155,7 @@
         <v>43259</v>
       </c>
       <c r="C65" t="n">
-        <v>79.74312709466754</v>
+        <v>79.74312686493775</v>
       </c>
     </row>
     <row r="66">
@@ -1166,7 +1166,7 @@
         <v>43270</v>
       </c>
       <c r="C66" t="n">
-        <v>88.01317235881532</v>
+        <v>88.01317228367677</v>
       </c>
     </row>
     <row r="67">
@@ -1177,7 +1177,7 @@
         <v>43280</v>
       </c>
       <c r="C67" t="n">
-        <v>95.1864441861953</v>
+        <v>95.1864444636324</v>
       </c>
     </row>
     <row r="68">
@@ -1188,7 +1188,7 @@
         <v>43291</v>
       </c>
       <c r="C68" t="n">
-        <v>101.1244445070715</v>
+        <v>101.1244452854372</v>
       </c>
     </row>
     <row r="69">
@@ -1199,7 +1199,7 @@
         <v>43301</v>
       </c>
       <c r="C69" t="n">
-        <v>105.8527251427842</v>
+        <v>105.8527264989031</v>
       </c>
     </row>
     <row r="70">
@@ -1210,7 +1210,7 @@
         <v>43312</v>
       </c>
       <c r="C70" t="n">
-        <v>109.5026882645583</v>
+        <v>109.5026902082146</v>
       </c>
     </row>
     <row r="71">
@@ -1221,7 +1221,7 @@
         <v>43322</v>
       </c>
       <c r="C71" t="n">
-        <v>112.2533235303141</v>
+        <v>112.253326022906</v>
       </c>
     </row>
     <row r="72">
@@ -1232,7 +1232,7 @@
         <v>43333</v>
       </c>
       <c r="C72" t="n">
-        <v>114.2888940390119</v>
+        <v>114.2888970147031</v>
       </c>
     </row>
     <row r="73">
@@ -1243,7 +1243,7 @@
         <v>43344</v>
       </c>
       <c r="C73" t="n">
-        <v>115.7751226806686</v>
+        <v>115.7751260635339</v>
       </c>
     </row>
     <row r="74">
@@ -1254,7 +1254,7 @@
         <v>43466</v>
       </c>
       <c r="C74" t="n">
-        <v>13.56876973471692</v>
+        <v>13.56876799158933</v>
       </c>
     </row>
     <row r="75">
@@ -1265,7 +1265,7 @@
         <v>43476</v>
       </c>
       <c r="C75" t="n">
-        <v>13.96207239887699</v>
+        <v>13.96207077462898</v>
       </c>
     </row>
     <row r="76">
@@ -1276,7 +1276,7 @@
         <v>43487</v>
       </c>
       <c r="C76" t="n">
-        <v>14.51482116918268</v>
+        <v>14.51481969455265</v>
       </c>
     </row>
     <row r="77">
@@ -1287,7 +1287,7 @@
         <v>43497</v>
       </c>
       <c r="C77" t="n">
-        <v>15.28881379396205</v>
+        <v>15.28881250406093</v>
       </c>
     </row>
     <row r="78">
@@ -1298,7 +1298,7 @@
         <v>43508</v>
       </c>
       <c r="C78" t="n">
-        <v>16.36706132459889</v>
+        <v>16.3670602570573</v>
       </c>
     </row>
     <row r="79">
@@ -1309,7 +1309,7 @@
         <v>43518</v>
       </c>
       <c r="C79" t="n">
-        <v>17.85848238512852</v>
+        <v>17.85848157619757</v>
       </c>
     </row>
     <row r="80">
@@ -1320,7 +1320,7 @@
         <v>43529</v>
       </c>
       <c r="C80" t="n">
-        <v>19.90116187403006</v>
+        <v>19.90116135184278</v>
       </c>
     </row>
     <row r="81">
@@ -1331,7 +1331,7 @@
         <v>43539</v>
       </c>
       <c r="C81" t="n">
-        <v>22.66139849697431</v>
+        <v>22.66139827158202</v>
       </c>
     </row>
     <row r="82">
@@ -1342,7 +1342,7 @@
         <v>43550</v>
       </c>
       <c r="C82" t="n">
-        <v>26.32409347309714</v>
+        <v>26.32409352422501</v>
       </c>
     </row>
     <row r="83">
@@ -1353,7 +1353,7 @@
         <v>43561</v>
       </c>
       <c r="C83" t="n">
-        <v>31.06885262486582</v>
+        <v>31.06885289099318</v>
       </c>
     </row>
     <row r="84">
@@ -1364,7 +1364,7 @@
         <v>43571</v>
       </c>
       <c r="C84" t="n">
-        <v>37.02752388399033</v>
+        <v>37.02752425991285</v>
       </c>
     </row>
     <row r="85">
@@ -1375,7 +1375,7 @@
         <v>43582</v>
       </c>
       <c r="C85" t="n">
-        <v>44.2257317906736</v>
+        <v>44.22573214263069</v>
       </c>
     </row>
     <row r="86">
@@ -1386,7 +1386,7 @@
         <v>43592</v>
       </c>
       <c r="C86" t="n">
-        <v>52.52447826767739</v>
+        <v>52.52447847074025</v>
       </c>
     </row>
     <row r="87">
@@ -1397,7 +1397,7 @@
         <v>43603</v>
       </c>
       <c r="C87" t="n">
-        <v>61.59211140860446</v>
+        <v>61.59211139755723</v>
       </c>
     </row>
     <row r="88">
@@ -1408,7 +1408,7 @@
         <v>43613</v>
       </c>
       <c r="C88" t="n">
-        <v>70.93693969204452</v>
+        <v>70.93693950122</v>
       </c>
     </row>
     <row r="89">
@@ -1419,7 +1419,7 @@
         <v>43624</v>
       </c>
       <c r="C89" t="n">
-        <v>80.00451113648707</v>
+        <v>80.00451090227317</v>
       </c>
     </row>
     <row r="90">
@@ -1430,7 +1430,7 @@
         <v>43635</v>
       </c>
       <c r="C90" t="n">
-        <v>88.30314789209785</v>
+        <v>88.30314781259828</v>
       </c>
     </row>
     <row r="91">
@@ -1441,7 +1441,7 @@
         <v>43645</v>
       </c>
       <c r="C91" t="n">
-        <v>95.50121940722605</v>
+        <v>95.50121968116423</v>
       </c>
     </row>
     <row r="92">
@@ -1452,7 +1452,7 @@
         <v>43656</v>
       </c>
       <c r="C92" t="n">
-        <v>101.459748791736</v>
+        <v>101.4597495680393</v>
       </c>
     </row>
     <row r="93">
@@ -1463,7 +1463,7 @@
         <v>43666</v>
       </c>
       <c r="C93" t="n">
-        <v>106.2043762056237</v>
+        <v>106.2043775614425</v>
       </c>
     </row>
     <row r="94">
@@ -1474,7 +1474,7 @@
         <v>43677</v>
       </c>
       <c r="C94" t="n">
-        <v>109.8669581083238</v>
+        <v>109.8669600535297</v>
       </c>
     </row>
     <row r="95">
@@ -1485,7 +1485,7 @@
         <v>43687</v>
       </c>
       <c r="C95" t="n">
-        <v>112.6271029670996</v>
+        <v>112.627105463002</v>
       </c>
     </row>
     <row r="96">
@@ -1496,7 +1496,7 @@
         <v>43698</v>
       </c>
       <c r="C96" t="n">
-        <v>114.6697109217802</v>
+        <v>114.6697139023508</v>
       </c>
     </row>
     <row r="97">
@@ -1507,7 +1507,7 @@
         <v>43709</v>
       </c>
       <c r="C97" t="n">
-        <v>116.1610778053888</v>
+        <v>116.1610811944673</v>
       </c>
     </row>
     <row r="98">
@@ -1518,7 +1518,7 @@
         <v>43831</v>
       </c>
       <c r="C98" t="n">
-        <v>13.73162617013909</v>
+        <v>13.73162439602213</v>
       </c>
     </row>
     <row r="99">
@@ -1529,7 +1529,7 @@
         <v>43841</v>
       </c>
       <c r="C99" t="n">
-        <v>14.13172608236457</v>
+        <v>14.13172442913104</v>
       </c>
     </row>
     <row r="100">
@@ -1540,7 +1540,7 @@
         <v>43852</v>
       </c>
       <c r="C100" t="n">
-        <v>14.69402772594571</v>
+        <v>14.69402622484472</v>
       </c>
     </row>
     <row r="101">
@@ -1551,7 +1551,7 @@
         <v>43862</v>
       </c>
       <c r="C101" t="n">
-        <v>15.4813968679746</v>
+        <v>15.4813955546954</v>
       </c>
     </row>
     <row r="102">
@@ -1562,7 +1562,7 @@
         <v>43873</v>
       </c>
       <c r="C102" t="n">
-        <v>16.57827919722718</v>
+        <v>16.57827811001151</v>
       </c>
     </row>
     <row r="103">
@@ -1573,7 +1573,7 @@
         <v>43884</v>
       </c>
       <c r="C103" t="n">
-        <v>18.09547572241083</v>
+        <v>18.0954748980831</v>
       </c>
     </row>
     <row r="104">
@@ -1584,7 +1584,7 @@
         <v>43894</v>
       </c>
       <c r="C104" t="n">
-        <v>20.17345779242719</v>
+        <v>20.17345725953562</v>
       </c>
     </row>
     <row r="105">
@@ -1595,7 +1595,7 @@
         <v>43905</v>
       </c>
       <c r="C105" t="n">
-        <v>22.9813981681173</v>
+        <v>22.98139793679446</v>
       </c>
     </row>
     <row r="106">
@@ -1606,7 +1606,7 @@
         <v>43915</v>
       </c>
       <c r="C106" t="n">
-        <v>26.70739362147895</v>
+        <v>26.70739367098337</v>
       </c>
     </row>
     <row r="107">
@@ -1617,7 +1617,7 @@
         <v>43926</v>
       </c>
       <c r="C107" t="n">
-        <v>31.53415401021882</v>
+        <v>31.53415427782718</v>
       </c>
     </row>
     <row r="108">
@@ -1628,7 +1628,7 @@
         <v>43937</v>
       </c>
       <c r="C108" t="n">
-        <v>37.59580592617408</v>
+        <v>37.59580630470748</v>
       </c>
     </row>
     <row r="109">
@@ -1639,7 +1639,7 @@
         <v>43947</v>
       </c>
       <c r="C109" t="n">
-        <v>44.91841676532312</v>
+        <v>44.91841711854956</v>
       </c>
     </row>
     <row r="110">
@@ -1650,7 +1650,7 @@
         <v>43958</v>
       </c>
       <c r="C110" t="n">
-        <v>53.36058621800544</v>
+        <v>53.36058641869525</v>
       </c>
     </row>
     <row r="111">
@@ -1661,7 +1661,7 @@
         <v>43968</v>
       </c>
       <c r="C111" t="n">
-        <v>62.58493060815994</v>
+        <v>62.58493058987112</v>
       </c>
     </row>
     <row r="112">
@@ -1672,7 +1672,7 @@
         <v>43979</v>
       </c>
       <c r="C112" t="n">
-        <v>72.09126076219333</v>
+        <v>72.09126055981632</v>
       </c>
     </row>
     <row r="113">
@@ -1683,7 +1683,7 @@
         <v>43990</v>
       </c>
       <c r="C113" t="n">
-        <v>81.31554238959463</v>
+        <v>81.31554214191019</v>
       </c>
     </row>
     <row r="114">
@@ -1694,7 +1694,7 @@
         <v>44000</v>
       </c>
       <c r="C114" t="n">
-        <v>89.75760022462542</v>
+        <v>89.75760013326004</v>
       </c>
     </row>
     <row r="115">
@@ -1705,7 +1705,7 @@
         <v>44011</v>
       </c>
       <c r="C115" t="n">
-        <v>97.08007231503414</v>
+        <v>97.08007258228747</v>
       </c>
     </row>
     <row r="116">
@@ -1716,7 +1716,7 @@
         <v>44021</v>
       </c>
       <c r="C116" t="n">
-        <v>103.1415799044287</v>
+        <v>103.1415806819616</v>
       </c>
     </row>
     <row r="117">
@@ -1727,7 +1727,7 @@
         <v>44032</v>
       </c>
       <c r="C117" t="n">
-        <v>107.9682062785294</v>
+        <v>107.968207644982</v>
       </c>
     </row>
     <row r="118">
@@ -1738,7 +1738,7 @@
         <v>44043</v>
       </c>
       <c r="C118" t="n">
-        <v>111.6940867042785</v>
+        <v>111.6940886698324</v>
       </c>
     </row>
     <row r="119">
@@ -1749,7 +1749,7 @@
         <v>44053</v>
       </c>
       <c r="C119" t="n">
-        <v>114.501933729887</v>
+        <v>114.5019362552993</v>
       </c>
     </row>
     <row r="120">
@@ -1760,7 +1760,7 @@
         <v>44064</v>
       </c>
       <c r="C120" t="n">
-        <v>116.5798430293933</v>
+        <v>116.5798460475869</v>
       </c>
     </row>
     <row r="121">
@@ -1771,7 +1771,7 @@
         <v>44075</v>
       </c>
       <c r="C121" t="n">
-        <v>118.096984441344</v>
+        <v>118.0969878749133</v>
       </c>
     </row>
     <row r="122">
@@ -1782,7 +1782,7 @@
         <v>44197</v>
       </c>
       <c r="C122" t="n">
-        <v>13.55641442721352</v>
+        <v>13.55641268070447</v>
       </c>
     </row>
     <row r="123">
@@ -1793,7 +1793,7 @@
         <v>44207</v>
       </c>
       <c r="C123" t="n">
-        <v>13.94918230426745</v>
+        <v>13.94918067623683</v>
       </c>
     </row>
     <row r="124">
@@ -1804,7 +1804,7 @@
         <v>44218</v>
       </c>
       <c r="C124" t="n">
-        <v>14.50117948313421</v>
+        <v>14.50117800418153</v>
       </c>
     </row>
     <row r="125">
@@ -1815,7 +1815,7 @@
         <v>44228</v>
       </c>
       <c r="C125" t="n">
-        <v>15.27411968362639</v>
+        <v>15.27411838868012</v>
       </c>
     </row>
     <row r="126">
@@ -1826,7 +1826,7 @@
         <v>44239</v>
       </c>
       <c r="C126" t="n">
-        <v>16.35090108415746</v>
+        <v>16.35090001061177</v>
       </c>
     </row>
     <row r="127">
@@ -1837,7 +1837,7 @@
         <v>44249</v>
       </c>
       <c r="C127" t="n">
-        <v>17.8402942083783</v>
+        <v>17.8402933921834</v>
       </c>
     </row>
     <row r="128">
@@ -1848,7 +1848,7 @@
         <v>44260</v>
       </c>
       <c r="C128" t="n">
-        <v>19.88019619600111</v>
+        <v>19.8801956649161</v>
       </c>
     </row>
     <row r="129">
@@ -1859,7 +1859,7 @@
         <v>44270</v>
       </c>
       <c r="C129" t="n">
-        <v>22.63667963064955</v>
+        <v>22.63667939427512</v>
       </c>
     </row>
     <row r="130">
@@ -1870,7 +1870,7 @@
         <v>44281</v>
       </c>
       <c r="C130" t="n">
-        <v>26.29439431493753</v>
+        <v>26.29439435247688</v>
       </c>
     </row>
     <row r="131">
@@ -1881,7 +1881,7 @@
         <v>44292</v>
       </c>
       <c r="C131" t="n">
-        <v>31.03270185514262</v>
+        <v>31.03270210449978</v>
       </c>
     </row>
     <row r="132">
@@ -1892,7 +1892,7 @@
         <v>44302</v>
       </c>
       <c r="C132" t="n">
-        <v>36.98327090482522</v>
+        <v>36.98327126019973</v>
       </c>
     </row>
     <row r="133">
@@ -1903,7 +1903,7 @@
         <v>44313</v>
       </c>
       <c r="C133" t="n">
-        <v>44.17169116162312</v>
+        <v>44.17169148868143</v>
       </c>
     </row>
     <row r="134">
@@ -1914,7 +1914,7 @@
         <v>44323</v>
       </c>
       <c r="C134" t="n">
-        <v>52.45915354874546</v>
+        <v>52.45915372205848</v>
       </c>
     </row>
     <row r="135">
@@ -1925,7 +1925,7 @@
         <v>44334</v>
       </c>
       <c r="C135" t="n">
-        <v>61.51445711825379</v>
+        <v>61.51445707222613</v>
       </c>
     </row>
     <row r="136">
@@ -1936,7 +1936,7 @@
         <v>44344</v>
       </c>
       <c r="C136" t="n">
-        <v>70.84657891854376</v>
+        <v>70.84657868729271</v>
       </c>
     </row>
     <row r="137">
@@ -1947,7 +1947,7 @@
         <v>44355</v>
       </c>
       <c r="C137" t="n">
-        <v>79.90182087545838</v>
+        <v>79.90182059535526</v>
       </c>
     </row>
     <row r="138">
@@ -1958,7 +1958,7 @@
         <v>44366</v>
       </c>
       <c r="C138" t="n">
-        <v>88.18917369037966</v>
+        <v>88.18917355972704</v>
       </c>
     </row>
     <row r="139">
@@ -1969,7 +1969,7 @@
         <v>44376</v>
       </c>
       <c r="C139" t="n">
-        <v>95.37745774107874</v>
+        <v>95.37745795900005</v>
       </c>
     </row>
     <row r="140">
@@ -1980,7 +1980,7 @@
         <v>44387</v>
       </c>
       <c r="C140" t="n">
-        <v>101.3278851090586</v>
+        <v>101.3278858250334</v>
       </c>
     </row>
     <row r="141">
@@ -1991,7 +1991,7 @@
         <v>44397</v>
       </c>
       <c r="C141" t="n">
-        <v>106.0660610905112</v>
+        <v>106.0660623823243</v>
       </c>
     </row>
     <row r="142">
@@ -2002,7 +2002,7 @@
         <v>44408</v>
       </c>
       <c r="C142" t="n">
-        <v>109.7236628551263</v>
+        <v>109.7236647332947</v>
       </c>
     </row>
     <row r="143">
@@ -2013,7 +2013,7 @@
         <v>44418</v>
       </c>
       <c r="C143" t="n">
-        <v>112.4800546503811</v>
+        <v>112.4800570768165</v>
       </c>
     </row>
     <row r="144">
@@ -2024,7 +2024,7 @@
         <v>44429</v>
       </c>
       <c r="C144" t="n">
-        <v>114.5198852010506</v>
+        <v>114.5198881102513</v>
       </c>
     </row>
     <row r="145">
@@ -2035,7 +2035,7 @@
         <v>44440</v>
       </c>
       <c r="C145" t="n">
-        <v>116.0092242220165</v>
+        <v>116.0092275382615</v>
       </c>
     </row>
     <row r="146">
@@ -2046,7 +2046,7 @@
         <v>44562</v>
       </c>
       <c r="C146" t="n">
-        <v>13.80010050804605</v>
+        <v>13.8000987151104</v>
       </c>
     </row>
     <row r="147">
@@ -2057,7 +2057,7 @@
         <v>44572</v>
       </c>
       <c r="C147" t="n">
-        <v>14.20304558696396</v>
+        <v>14.20304391550582</v>
       </c>
     </row>
     <row r="148">
@@ -2068,7 +2068,7 @@
         <v>44583</v>
       </c>
       <c r="C148" t="n">
-        <v>14.76934583653958</v>
+        <v>14.76934431792262</v>
       </c>
     </row>
     <row r="149">
@@ -2079,7 +2079,7 @@
         <v>44593</v>
       </c>
       <c r="C149" t="n">
-        <v>15.56231407116785</v>
+        <v>15.56231274118571</v>
       </c>
     </row>
     <row r="150">
@@ -2090,7 +2090,7 @@
         <v>44604</v>
       </c>
       <c r="C150" t="n">
-        <v>16.66699648478272</v>
+        <v>16.66699538174369</v>
       </c>
     </row>
     <row r="151">
@@ -2101,7 +2101,7 @@
         <v>44614</v>
       </c>
       <c r="C151" t="n">
-        <v>18.19498200763278</v>
+        <v>18.19498116834414</v>
       </c>
     </row>
     <row r="152">
@@ -2112,7 +2112,7 @@
         <v>44625</v>
       </c>
       <c r="C152" t="n">
-        <v>20.28774090011881</v>
+        <v>20.28774035295961</v>
       </c>
     </row>
     <row r="153">
@@ -2123,7 +2123,7 @@
         <v>44635</v>
       </c>
       <c r="C153" t="n">
-        <v>23.11564893435404</v>
+        <v>23.11564868904442</v>
       </c>
     </row>
     <row r="154">
@@ -2134,7 +2134,7 @@
         <v>44646</v>
       </c>
       <c r="C154" t="n">
-        <v>26.86814046491075</v>
+        <v>26.86814049995243</v>
       </c>
     </row>
     <row r="155">
@@ -2145,7 +2145,7 @@
         <v>44657</v>
       </c>
       <c r="C155" t="n">
-        <v>31.72922462496567</v>
+        <v>31.72922487645871</v>
       </c>
     </row>
     <row r="156">
@@ -2156,7 +2156,7 @@
         <v>44667</v>
       </c>
       <c r="C156" t="n">
-        <v>37.83398179939618</v>
+        <v>37.83398215857991</v>
       </c>
     </row>
     <row r="157">
@@ -2167,7 +2167,7 @@
         <v>44678</v>
       </c>
       <c r="C157" t="n">
-        <v>45.20866475309609</v>
+        <v>45.20866508193285</v>
       </c>
     </row>
     <row r="158">
@@ -2178,7 +2178,7 @@
         <v>44688</v>
       </c>
       <c r="C158" t="n">
-        <v>53.71086765893527</v>
+        <v>53.71086782854758</v>
       </c>
     </row>
     <row r="159">
@@ -2189,7 +2189,7 @@
         <v>44699</v>
       </c>
       <c r="C159" t="n">
-        <v>63.00080765812758</v>
+        <v>63.00080760108183</v>
       </c>
     </row>
     <row r="160">
@@ -2200,7 +2200,7 @@
         <v>44709</v>
       </c>
       <c r="C160" t="n">
-        <v>72.57473866158652</v>
+        <v>72.57473841283411</v>
       </c>
     </row>
     <row r="161">
@@ -2211,7 +2211,7 @@
         <v>44720</v>
       </c>
       <c r="C161" t="n">
-        <v>81.86461545171088</v>
+        <v>81.86461515120664</v>
       </c>
     </row>
     <row r="162">
@@ -2222,7 +2222,7 @@
         <v>44731</v>
       </c>
       <c r="C162" t="n">
-        <v>90.36670594616973</v>
+        <v>90.36670579749311</v>
       </c>
     </row>
     <row r="163">
@@ -2233,7 +2233,7 @@
         <v>44741</v>
       </c>
       <c r="C163" t="n">
-        <v>97.74124916446755</v>
+        <v>97.74124937209986</v>
       </c>
     </row>
     <row r="164">
@@ -2244,7 +2244,7 @@
         <v>44752</v>
       </c>
       <c r="C164" t="n">
-        <v>103.8458609860109</v>
+        <v>103.8458617035284</v>
       </c>
     </row>
     <row r="165">
@@ -2255,7 +2255,7 @@
         <v>44762</v>
       </c>
       <c r="C165" t="n">
-        <v>108.7068101784297</v>
+        <v>108.7068114858514</v>
       </c>
     </row>
     <row r="166">
@@ -2266,7 +2266,7 @@
         <v>44773</v>
       </c>
       <c r="C166" t="n">
-        <v>112.4591858633963</v>
+        <v>112.4591877717067</v>
       </c>
     </row>
     <row r="167">
@@ -2277,7 +2277,7 @@
         <v>44783</v>
       </c>
       <c r="C167" t="n">
-        <v>115.2869998837245</v>
+        <v>115.2870023540109</v>
       </c>
     </row>
     <row r="168">
@@ -2288,7 +2288,7 @@
         <v>44794</v>
       </c>
       <c r="C168" t="n">
-        <v>117.3796854882191</v>
+        <v>117.3796884534119</v>
       </c>
     </row>
     <row r="169">
@@ -2299,7 +2299,7 @@
         <v>44805</v>
       </c>
       <c r="C169" t="n">
-        <v>118.9076155059182</v>
+        <v>118.9076188884336</v>
       </c>
     </row>
   </sheetData>
